--- a/dist/resources/MediaPlanTemplate.xlsx
+++ b/dist/resources/MediaPlanTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
     <t>Not Taggable</t>
   </si>
   <si>
-    <t>Is Targeting</t>
+    <t>View Tag</t>
   </si>
   <si>
-    <t>View Tag</t>
+    <t>Is Retargeting</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -662,7 +662,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7">
         <v>40000</v>
